--- a/data/mapping_country_FAO_FABLE.xlsx
+++ b/data/mapping_country_FAO_FABLE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Clara Douzal\OneDrive - SDSN Association Paris\FABLE\Scenathon 2021\Trade\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Davide\Desktop\GitHub\SOFA 2024\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FA55F72-B261-45CC-ABA1-15C9D5E58C02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56C803F2-EDD4-4DFE-9E1C-FC1F3B7A92EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{48BE82F7-36F5-488F-A57D-921D79BDD5F7}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{48BE82F7-36F5-488F-A57D-921D79BDD5F7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="190">
   <si>
     <t>R_MECAS</t>
   </si>
@@ -601,6 +601,12 @@
   </si>
   <si>
     <t>Sudan</t>
+  </si>
+  <si>
+    <t>GRC</t>
+  </si>
+  <si>
+    <t>NPL</t>
   </si>
 </sst>
 </file>
@@ -672,9 +678,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -712,7 +718,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -818,7 +824,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -960,7 +966,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -970,8 +976,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{796C05A3-0AA5-4E38-8E29-F0318BDEE91A}">
   <dimension ref="A1:B177"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A163" workbookViewId="0">
-      <selection activeCell="A175" sqref="A175"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1510,7 +1516,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>16</v>
+        <v>189</v>
       </c>
       <c r="B67" t="s">
         <v>103</v>
@@ -2142,7 +2148,7 @@
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
-        <v>2</v>
+        <v>151</v>
       </c>
       <c r="B146" t="s">
         <v>151</v>
@@ -2206,7 +2212,7 @@
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="B154" t="s">
         <v>41</v>
@@ -2230,7 +2236,7 @@
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
-        <v>10</v>
+        <v>188</v>
       </c>
       <c r="B157" t="s">
         <v>60</v>
